--- a/HOAc work/Ni(110)/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
+++ b/HOAc work/Ni(110)/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\IRAS chamber\HOAc results on Ni and SnNi in IRAS chamber\TPD of HOAc on SnNi\TPD SnNi HOAc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\IRAS\HOAc work\Ni(110)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A00AAC-604C-4A56-924F-754B73114A7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +144,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7BB629F5-BC82-4A01-BFA0-6FB351BAC2DE}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -162,7 +161,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -182,15 +181,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$6</c:f>
+              <c:f>Sheet1!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H2</c:v>
+                  <c:v>CO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1109,516 +1108,516 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$303</c:f>
+              <c:f>Sheet1!$N$7:$N$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="297"/>
                 <c:pt idx="135">
-                  <c:v>2708.5203618200771</c:v>
+                  <c:v>9757.4197244376301</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2679.9873218318539</c:v>
+                  <c:v>9452.5076621770204</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2722.8496858453973</c:v>
+                  <c:v>9533.3832905773306</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2651.0406498589409</c:v>
+                  <c:v>9188.7389189776404</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2713.5503138724848</c:v>
+                  <c:v>9250.1345473779402</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2680.8319778860287</c:v>
+                  <c:v>9161.49017577825</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2712.6276418995717</c:v>
+                  <c:v>8803.4658041785497</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2659.9832059131154</c:v>
+                  <c:v>8868.3014325788608</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2688.7645379272476</c:v>
+                  <c:v>8557.9129578661395</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2679.3298019407912</c:v>
+                  <c:v>8521.1085862664513</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2678.4577619525685</c:v>
+                  <c:v>8300.6465240058405</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2694.3672259661121</c:v>
+                  <c:v>8266.1321524061514</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2647.9827899796555</c:v>
+                  <c:v>8265.8777808064497</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2702.0939539931992</c:v>
+                  <c:v>7830.92340920676</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2669.5642180067425</c:v>
+                  <c:v>8047.9590376070701</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2698.2444820202863</c:v>
+                  <c:v>7475.7146660073704</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2652.2701460338299</c:v>
+                  <c:v>7872.7102944076796</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2699.1687100473732</c:v>
+                  <c:v>7915.5059228079899</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2662.8930740609167</c:v>
+                  <c:v>7052.6115512082906</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2687.4799380744603</c:v>
+                  <c:v>7750.067179608599</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2660.306270088593</c:v>
+                  <c:v>7278.8187048958789</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2705.704434102136</c:v>
+                  <c:v>7239.2043332961803</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2653.7973981156797</c:v>
+                  <c:v>7277.4199616964888</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2691.4798621292234</c:v>
+                  <c:v>6821.9655900967991</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2660.0824221410003</c:v>
+                  <c:v>7001.4235278361884</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2694.948786154544</c:v>
+                  <c:v>7013.5291562365001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2664.2938501680874</c:v>
+                  <c:v>6711.1647846368105</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2696.2742141816311</c:v>
+                  <c:v>6715.88041303711</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2659.2891781951748</c:v>
+                  <c:v>6649.6460414374196</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2689.5157422087182</c:v>
+                  <c:v>6667.2316698377199</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2661.5217742228506</c:v>
+                  <c:v>6686.2131951249994</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2671.659138236394</c:v>
+                  <c:v>6316.8488235253099</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2690.3668022499378</c:v>
+                  <c:v>6575.2744519256194</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2656.825766263481</c:v>
+                  <c:v>6458.6100803259214</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2685.8856302770246</c:v>
+                  <c:v>6638.8357087262302</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2646.4106942905682</c:v>
+                  <c:v>6427.5413371265295</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2691.0842543023455</c:v>
+                  <c:v>6499.7592748659299</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2656.5255183158888</c:v>
+                  <c:v>6268.214903266231</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2698.3205823294325</c:v>
+                  <c:v>6702.9105316665391</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2655.3953463429762</c:v>
+                  <c:v>6344.2561600668505</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2690.9253103565193</c:v>
+                  <c:v>6796.011788467149</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2654.7796743700628</c:v>
+                  <c:v>6478.1174168674606</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2674.5992383836065</c:v>
+                  <c:v>6869.2530452677602</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2657.92120239715</c:v>
+                  <c:v>6735.9086736680802</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2691.1509664106934</c:v>
+                  <c:v>6697.0643020683783</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2642.5236304242371</c:v>
+                  <c:v>6674.0099304686901</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2692.4156624383695</c:v>
+                  <c:v>6826.2114557559689</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2645.8133264519133</c:v>
+                  <c:v>6717.8270841562698</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2685.6250184631012</c:v>
+                  <c:v>6697.3191250086893</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2646.8746824766449</c:v>
+                  <c:v>6568.8147534089985</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2670.9189464901883</c:v>
+                  <c:v>6278.8103818093095</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2646.0187785043208</c:v>
+                  <c:v>6385.4119070965899</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2680.8202425178642</c:v>
+                  <c:v>6219.4575354968911</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2660.6155065314078</c:v>
+                  <c:v>6019.2431638971993</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2659.7153705449514</c:v>
+                  <c:v>5584.1687922975107</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2661.6211345584952</c:v>
+                  <c:v>5920.54442069781</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2654.3031985720386</c:v>
+                  <c:v>5656.1300490981193</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2678.3741625855823</c:v>
+                  <c:v>5597.9256774984206</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2630.6574265991258</c:v>
+                  <c:v>5331.8713058987396</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2680.9770866109029</c:v>
+                  <c:v>5656.0092436381292</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2646.2761146379898</c:v>
+                  <c:v>5370.8505004387389</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2640.7284786515334</c:v>
+                  <c:v>5211.6461288390492</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2675.1810426650768</c:v>
+                  <c:v>5190.5017572393481</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2640.9385746792091</c:v>
+                  <c:v>5256.9932825266296</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2677.2836386927529</c:v>
+                  <c:v>5437.8489109269394</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2625.9715027062966</c:v>
+                  <c:v>5287.5645393272498</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2673.7347667198401</c:v>
+                  <c:v>5379.6501677275501</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2640.5542267316168</c:v>
+                  <c:v>5218.0181054669483</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2666.6159907451606</c:v>
+                  <c:v>5175.6137338672597</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2636.1074547587041</c:v>
+                  <c:v>4968.8993622675589</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2655.6659187722476</c:v>
+                  <c:v>5182.7449906678703</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2623.9589827857912</c:v>
+                  <c:v>4939.6106190681803</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2660.0748467993344</c:v>
+                  <c:v>4990.0462474684809</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2620.644410812878</c:v>
+                  <c:v>4929.6818758687896</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2670.8760748264217</c:v>
+                  <c:v>5247.2075042690904</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2635.899734838199</c:v>
+                  <c:v>4903.9554420085005</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2670.1674988517425</c:v>
+                  <c:v>5080.2310704087904</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2640.7199628652861</c:v>
+                  <c:v>4839.3866988091013</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2672.8276268788295</c:v>
+                  <c:v>5073.7423272094111</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2643.3354908923729</c:v>
+                  <c:v>4849.0679556097184</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2668.3872549059165</c:v>
+                  <c:v>5214.4835840100204</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2645.4964189194602</c:v>
+                  <c:v>5024.0692124103298</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2642.4374829330036</c:v>
+                  <c:v>5180.604840810629</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2641.7870469465474</c:v>
+                  <c:v>5261.8704692109386</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2657.6558069583243</c:v>
+                  <c:v>4930.4684069503401</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2636.0640709718677</c:v>
+                  <c:v>5162.2740353506397</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2657.6859349854112</c:v>
+                  <c:v>5201.7596637509487</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2665.5993989989547</c:v>
+                  <c:v>5541.565292151261</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2619.5753630124987</c:v>
+                  <c:v>5258.8209205515705</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2674.9564270260421</c:v>
+                  <c:v>5332.6965489518698</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2633.2601910395852</c:v>
+                  <c:v>5011.4821773521799</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2676.9567550531292</c:v>
+                  <c:v>5466.0478057524797</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2641.5346190666723</c:v>
+                  <c:v>5357.6634341527897</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2681.7235830802165</c:v>
+                  <c:v>5219.3490625530994</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2646.24274709376</c:v>
+                  <c:v>5477.3846909534004</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2676.7545111073032</c:v>
+                  <c:v>5616.73031935371</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2639.3352751208467</c:v>
+                  <c:v>5421.7359477540213</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2681.8134071349791</c:v>
+                  <c:v>5787.9074730413013</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2644.7697711485225</c:v>
+                  <c:v>5151.6031014415985</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2666.3509311602998</c:v>
+                  <c:v>5536.621039181</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2640.3854951738435</c:v>
+                  <c:v>5407.8566675812999</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2677.638659187387</c:v>
+                  <c:v>5511.2822959816094</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2649.3476232009307</c:v>
+                  <c:v>5323.6779243819201</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2676.9733872144743</c:v>
+                  <c:v>5489.503552782222</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2640.8684512280174</c:v>
+                  <c:v>5378.3191811825309</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2675.1413152415612</c:v>
+                  <c:v>5247.5148095828408</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2640.8059472556934</c:v>
+                  <c:v>5626.0463348701087</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2662.3832112692371</c:v>
+                  <c:v>5733.1619632704205</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2664.4251752827809</c:v>
+                  <c:v>5616.87759167072</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2646.2915352945574</c:v>
+                  <c:v>5652.5455294101193</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2685.1826033098678</c:v>
+                  <c:v>5755.8388484713396</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2646.7367633216445</c:v>
+                  <c:v>5734.0567862107309</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2680.3346273351881</c:v>
+                  <c:v>5888.9424146110396</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2639.9527913487318</c:v>
+                  <c:v>5644.9080430113499</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2653.0208553622751</c:v>
+                  <c:v>5960.2636714116597</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2643.4243193758189</c:v>
+                  <c:v>5703.759299811958</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2678.9300833893622</c:v>
+                  <c:v>6042.4149282122708</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2640.6052474029061</c:v>
+                  <c:v>5847.1705566125802</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2682.7811114164497</c:v>
+                  <c:v>5986.7661850128789</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2645.571043430582</c:v>
+                  <c:v>5744.5177103001606</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2672.6772074441255</c:v>
+                  <c:v>6105.3433387004607</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2626.9880714576693</c:v>
+                  <c:v>6157.6989671007705</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2673.0129354712126</c:v>
+                  <c:v>5932.5145955010794</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2647.6218994847559</c:v>
+                  <c:v>6192.3402239013813</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2643.1123634982996</c:v>
+                  <c:v>6090.7058523016894</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2665.1327275118433</c:v>
+                  <c:v>6371.0414807019988</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2641.2458915253869</c:v>
+                  <c:v>6382.6271091023009</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2684.6801555389302</c:v>
+                  <c:v>6991.9427375026098</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2631.209119552474</c:v>
+                  <c:v>6102.0483659029196</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2681.2331835660175</c:v>
+                  <c:v>7183.1239943032215</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2651.0978475795609</c:v>
+                  <c:v>7059.5796227035298</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2661.0890795936934</c:v>
+                  <c:v>7544.84114799081</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2624.6183716048818</c:v>
+                  <c:v>7500.1331888432305</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2693.3025356184253</c:v>
+                  <c:v>7326.0288172435394</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2634.0699676325576</c:v>
+                  <c:v>7764.5503425308198</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2702.1339316461008</c:v>
+                  <c:v>8387.4959709311206</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2661.9889956596448</c:v>
+                  <c:v>8373.1015993314304</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2705.4856596731884</c:v>
+                  <c:v>8987.1272277317294</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2666.4692236867318</c:v>
+                  <c:v>8731.3828561320406</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2659.8873877002752</c:v>
+                  <c:v>9089.4084845323396</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2663.5342517138188</c:v>
+                  <c:v>9315.9841129326487</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2701.584811725596</c:v>
+                  <c:v>9523.2120506720494</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2668.0819757391391</c:v>
+                  <c:v>9469.7176790723606</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2688.0645397526832</c:v>
+                  <c:v>9764.8233074726595</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2636.9727037662265</c:v>
+                  <c:v>10019.55893587297</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2659.3246317933135</c:v>
+                  <c:v>10737.000192673579</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2743.5299638074457</c:v>
+                  <c:v>13291.051717960861</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2748.2008278209896</c:v>
+                  <c:v>12200.427346361172</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2715.0799918345328</c:v>
+                  <c:v>9607.6729747614809</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2705.3599558480769</c:v>
+                  <c:v>7669.948603161778</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2650.8203198616202</c:v>
+                  <c:v>7169.534231562091</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2683.4272838751635</c:v>
+                  <c:v>7031.599859962389</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2655.1935438869409</c:v>
+                  <c:v>6298.4977977017916</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2659.6606079004841</c:v>
+                  <c:v>6858.6434261021004</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2657.181271914028</c:v>
+                  <c:v>6566.7290545024007</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2694.8738359275712</c:v>
+                  <c:v>6276.4646829027115</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2643.2393999411152</c:v>
+                  <c:v>6475.4103113030196</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2675.9877639546585</c:v>
+                  <c:v>6055.2359397033215</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2606.7243599676135</c:v>
+                  <c:v>4329.7056712166595</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2596.5841199793904</c:v>
+                  <c:v>3746.253608956049</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2541.0358759894007</c:v>
+                  <c:v>2809.1038560345405</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2561.792191996467</c:v>
+                  <c:v>2422.4246186781838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE03-4385-8671-18A745B793DC}"/>
+              <c16:uniqueId val="{00000001-FE03-4385-8671-18A745B793DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$6</c:f>
+              <c:f>Sheet1!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CO</c:v>
+                  <c:v>CO2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2537,516 +2536,516 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$7:$N$303</c:f>
+              <c:f>Sheet1!$O$7:$O$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="297"/>
                 <c:pt idx="135">
-                  <c:v>9757.4197244376301</c:v>
+                  <c:v>10184.583515519069</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9452.5076621770204</c:v>
+                  <c:v>9879.7320778339308</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9533.3832905773306</c:v>
+                  <c:v>9899.3473244960187</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>9188.7389189776404</c:v>
+                  <c:v>9728.4185711581122</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>9250.1345473779402</c:v>
+                  <c:v>9782.5218178202049</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9161.49017577825</c:v>
+                  <c:v>9636.8130644822959</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8803.4658041785497</c:v>
+                  <c:v>9706.9643111443875</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8868.3014325788608</c:v>
+                  <c:v>9437.8155578064798</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8557.9129578661395</c:v>
+                  <c:v>9488.0570325843109</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8521.1085862664513</c:v>
+                  <c:v>9346.5282792464041</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8300.6465240058405</c:v>
+                  <c:v>9318.6168415612628</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8266.1321524061514</c:v>
+                  <c:v>9237.1000882233566</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>8265.8777808064497</c:v>
+                  <c:v>9319.8873348854468</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7830.92340920676</c:v>
+                  <c:v>9139.9945815475403</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>8047.9590376070701</c:v>
+                  <c:v>9239.7418282096332</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7475.7146660073704</c:v>
+                  <c:v>9096.6330748717191</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>7872.7102944076796</c:v>
+                  <c:v>9125.5683215338122</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>7915.5059228079899</c:v>
+                  <c:v>9072.4275681959043</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>7052.6115512082906</c:v>
+                  <c:v>9055.5108148579966</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7750.067179608599</c:v>
+                  <c:v>8983.6260615200881</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>7278.8187048958789</c:v>
+                  <c:v>8990.1035362979201</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>7239.2043332961803</c:v>
+                  <c:v>8848.7267829600096</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>7277.4199616964888</c:v>
+                  <c:v>8863.3460296221019</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6821.9655900967991</c:v>
+                  <c:v>8856.6212762841933</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>7001.4235278361884</c:v>
+                  <c:v>8737.9738385990568</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7013.5291562365001</c:v>
+                  <c:v>8840.0170852611482</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>6711.1647846368105</c:v>
+                  <c:v>8702.8163319232372</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>6715.88041303711</c:v>
+                  <c:v>8814.5915785853285</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>6649.6460414374196</c:v>
+                  <c:v>8667.3028252474214</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>6667.2316698377199</c:v>
+                  <c:v>8629.4980719095111</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>6686.2131951249994</c:v>
+                  <c:v>8629.3035466873444</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>6316.8488235253099</c:v>
+                  <c:v>8642.4987933494376</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>6575.2744519256194</c:v>
+                  <c:v>8499.7460400115269</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>6458.6100803259214</c:v>
+                  <c:v>8581.9692866736186</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>6638.8357087262302</c:v>
+                  <c:v>8416.4925333357096</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>6427.5413371265295</c:v>
+                  <c:v>8493.9797799978005</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>6499.7592748659299</c:v>
+                  <c:v>8418.0803423126636</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>6268.214903266231</c:v>
+                  <c:v>8396.5755889747561</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>6702.9105316665391</c:v>
+                  <c:v>8362.6948356368448</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>6344.2561600668505</c:v>
+                  <c:v>8493.3700822989376</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>6796.011788467149</c:v>
+                  <c:v>8253.8173289610277</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>6478.1174168674606</c:v>
+                  <c:v>8362.4845756231189</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>6869.2530452677602</c:v>
+                  <c:v>8288.2518222852086</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>6735.9086736680802</c:v>
+                  <c:v>8275.3110689472996</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>6697.0643020683783</c:v>
+                  <c:v>8257.9863156093925</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>6674.0099304686901</c:v>
+                  <c:v>8181.5135622714852</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>6826.2114557559689</c:v>
+                  <c:v>8286.6270370493185</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>6717.8270841562698</c:v>
+                  <c:v>8174.0822837114092</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>6697.3191250086893</c:v>
+                  <c:v>8182.2286179105276</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>6568.8147534089985</c:v>
+                  <c:v>8157.4158645726175</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>6278.8103818093095</c:v>
+                  <c:v>8120.3751112347099</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>6385.4119070965899</c:v>
+                  <c:v>8077.5405860125438</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>6219.4575354968911</c:v>
+                  <c:v>8121.9638326746363</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>6019.2431638971993</c:v>
+                  <c:v>8069.6910793367269</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5584.1687922975107</c:v>
+                  <c:v>8027.402325998818</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5920.54442069781</c:v>
+                  <c:v>8008.0935726609086</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5656.1300490981193</c:v>
+                  <c:v>7990.5128193230003</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5597.9256774984206</c:v>
+                  <c:v>7972.0160659850908</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5331.8713058987396</c:v>
+                  <c:v>7979.451312647182</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5656.0092436381292</c:v>
+                  <c:v>8013.4918749620438</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5370.8505004387389</c:v>
+                  <c:v>7842.8703682862279</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5211.6461288390492</c:v>
+                  <c:v>7900.3336149483175</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5190.5017572393481</c:v>
+                  <c:v>7861.5128616104075</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5256.9932825266296</c:v>
+                  <c:v>7887.0463363882436</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5437.8489109269394</c:v>
+                  <c:v>7864.1695830503331</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5287.5645393272498</c:v>
+                  <c:v>7847.2528297124254</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5379.6501677275501</c:v>
+                  <c:v>7806.136076374517</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5218.0181054669483</c:v>
+                  <c:v>7782.4526386893767</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5175.6137338672597</c:v>
+                  <c:v>7807.8718853514683</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4968.8993622675589</c:v>
+                  <c:v>7773.3791320135615</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5182.7449906678703</c:v>
+                  <c:v>7752.0303786756513</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>4939.6106190681803</c:v>
+                  <c:v>7719.1176253377425</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4990.0462474684809</c:v>
+                  <c:v>7732.2608719998343</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4929.6818758687896</c:v>
+                  <c:v>7683.7041186619253</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5247.2075042690904</c:v>
+                  <c:v>7751.8153653240161</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4903.9554420085005</c:v>
+                  <c:v>7669.4959276388772</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5080.2310704087904</c:v>
+                  <c:v>7690.0751743009687</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4839.3866988091013</c:v>
+                  <c:v>7656.8584209630599</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5073.7423272094111</c:v>
+                  <c:v>7713.8616676251504</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4849.0679556097184</c:v>
+                  <c:v>7698.7809142872438</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5214.4835840100204</c:v>
+                  <c:v>7698.6241609493327</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5024.0692124103298</c:v>
+                  <c:v>7655.7274076114254</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5180.604840810629</c:v>
+                  <c:v>7710.4386542735147</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5261.8704692109386</c:v>
+                  <c:v>7601.3099009356074</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4930.4684069503401</c:v>
+                  <c:v>7659.2464632504698</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5162.2740353506397</c:v>
+                  <c:v>7687.413709912561</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5201.7596637509487</c:v>
+                  <c:v>7690.5729565746506</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5541.565292151261</c:v>
+                  <c:v>7635.9562032367421</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>5258.8209205515705</c:v>
+                  <c:v>7676.4554498988318</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>5332.6965489518698</c:v>
+                  <c:v>7629.2226965609252</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>5011.4821773521799</c:v>
+                  <c:v>7615.4139432230158</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>5466.0478057524797</c:v>
+                  <c:v>7573.433189885106</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>5357.6634341527897</c:v>
+                  <c:v>7689.6364365471973</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>5219.3490625530994</c:v>
+                  <c:v>7671.85568320929</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>5477.3846909534004</c:v>
+                  <c:v>7636.2429298713805</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>5616.73031935371</c:v>
+                  <c:v>7643.0661765334708</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>5421.7359477540213</c:v>
+                  <c:v>7676.8414231955621</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>5787.9074730413013</c:v>
+                  <c:v>7679.4988979733962</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>5151.6031014415985</c:v>
+                  <c:v>7575.2621446354869</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>5536.621039181</c:v>
+                  <c:v>7607.2147069503508</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>5407.8566675812999</c:v>
+                  <c:v>7590.6019536124413</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>5511.2822959816094</c:v>
+                  <c:v>7712.5652002745328</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>5323.6779243819201</c:v>
+                  <c:v>7586.5204469366226</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>5489.503552782222</c:v>
+                  <c:v>7656.1116935987129</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>5378.3191811825309</c:v>
+                  <c:v>7646.9389402608058</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>5247.5148095828408</c:v>
+                  <c:v>7636.1341869228972</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>5626.0463348701087</c:v>
+                  <c:v>7619.1276617007306</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5733.1619632704205</c:v>
+                  <c:v>7689.6869083628217</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>5616.87759167072</c:v>
+                  <c:v>7676.538155024914</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>5652.5455294101193</c:v>
+                  <c:v>7701.3067173397767</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>5755.8388484713396</c:v>
+                  <c:v>7651.2646483490962</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>5734.0567862107309</c:v>
+                  <c:v>7798.1492106639589</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>5888.9424146110396</c:v>
+                  <c:v>7706.4964573260486</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>5644.9080430113499</c:v>
+                  <c:v>7760.0877039881407</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>5960.2636714116597</c:v>
+                  <c:v>7731.7589506502309</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>5703.759299811958</c:v>
+                  <c:v>7850.9221973123213</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>6042.4149282122708</c:v>
+                  <c:v>7881.7414439744143</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>5847.1705566125802</c:v>
+                  <c:v>7931.9166906365053</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>5986.7661850128789</c:v>
+                  <c:v>8079.5079372985956</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>5744.5177103001606</c:v>
+                  <c:v>8045.2814120764297</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>6105.3433387004607</c:v>
+                  <c:v>8233.6246587385212</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>6157.6989671007705</c:v>
+                  <c:v>8225.6759054006106</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>5932.5145955010794</c:v>
+                  <c:v>8421.1511520627027</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>6192.3402239013813</c:v>
+                  <c:v>8520.6943987247942</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>6090.7058523016894</c:v>
+                  <c:v>8760.6496453868858</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>6371.0414807019988</c:v>
+                  <c:v>8847.048892048977</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>6382.6271091023009</c:v>
+                  <c:v>9139.0681387110671</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>6991.9427375026098</c:v>
+                  <c:v>9357.9273853731611</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>6102.0483659029196</c:v>
+                  <c:v>9609.2946320352476</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7183.1239943032215</c:v>
+                  <c:v>9899.1218786973404</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7059.5796227035298</c:v>
+                  <c:v>10356.661125359431</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7544.84114799081</c:v>
+                  <c:v>10639.930600137264</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7500.1331888432305</c:v>
+                  <c:v>11209.500934336384</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7326.0288172435394</c:v>
+                  <c:v>11409.564180998477</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>7764.5503425308198</c:v>
+                  <c:v>12024.945655776311</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8387.4959709311206</c:v>
+                  <c:v>12603.5369024384</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8373.1015993314304</c:v>
+                  <c:v>13083.852149100492</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8987.1272277317294</c:v>
+                  <c:v>13528.195395762585</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8731.3828561320406</c:v>
+                  <c:v>13664.778642424675</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>9089.4084845323396</c:v>
+                  <c:v>13951.601889086767</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>9315.9841129326487</c:v>
+                  <c:v>14180.093135748861</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>9523.2120506720494</c:v>
+                  <c:v>14651.705698063721</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>9469.7176790723606</c:v>
+                  <c:v>14885.188944725807</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>9764.8233074726595</c:v>
+                  <c:v>15736.388191387899</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>10019.55893587297</c:v>
+                  <c:v>16351.503438049993</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>10737.000192673579</c:v>
+                  <c:v>20866.977931374175</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>13291.051717960861</c:v>
+                  <c:v>25051.319406152004</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>12200.427346361172</c:v>
+                  <c:v>21065.622652814098</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9607.6729747614809</c:v>
+                  <c:v>14577.469899476191</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>7669.948603161778</c:v>
+                  <c:v>9890.453146138283</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>7169.534231562091</c:v>
+                  <c:v>8914.8363928003746</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>7031.599859962389</c:v>
+                  <c:v>8316.6796394624653</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>6298.4977977017916</c:v>
+                  <c:v>7915.5922017773255</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>6858.6434261021004</c:v>
+                  <c:v>7615.5714484394184</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>6566.7290545024007</c:v>
+                  <c:v>7547.8106951015097</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>6276.4646829027115</c:v>
+                  <c:v>7519.1779417635998</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>6475.4103113030196</c:v>
+                  <c:v>7480.3011884256912</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>6055.2359397033215</c:v>
+                  <c:v>7386.7644350877827</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>4329.7056712166595</c:v>
+                  <c:v>7192.3894536341313</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>3746.253608956049</c:v>
+                  <c:v>7091.6780159489945</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2809.1038560345405</c:v>
+                  <c:v>6952.5638939166247</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2422.4246186781838</c:v>
+                  <c:v>6213.3986313055411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE03-4385-8671-18A745B793DC}"/>
+              <c16:uniqueId val="{00000002-FE03-4385-8671-18A745B793DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$6</c:f>
+              <c:f>Sheet1!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CO2</c:v>
+                  <c:v>HOAc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3965,1434 +3964,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$7:$O$303</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
-                <c:pt idx="135">
-                  <c:v>10184.583515519069</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>9879.7320778339308</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9899.3473244960187</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9728.4185711581122</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9782.5218178202049</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9636.8130644822959</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>9706.9643111443875</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9437.8155578064798</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9488.0570325843109</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9346.5282792464041</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>9318.6168415612628</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>9237.1000882233566</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9319.8873348854468</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9139.9945815475403</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9239.7418282096332</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9096.6330748717191</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9125.5683215338122</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9072.4275681959043</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9055.5108148579966</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>8983.6260615200881</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>8990.1035362979201</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>8848.7267829600096</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>8863.3460296221019</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>8856.6212762841933</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8737.9738385990568</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8840.0170852611482</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8702.8163319232372</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8814.5915785853285</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8667.3028252474214</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8629.4980719095111</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8629.3035466873444</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8642.4987933494376</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8499.7460400115269</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8581.9692866736186</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8416.4925333357096</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8493.9797799978005</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8418.0803423126636</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8396.5755889747561</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8362.6948356368448</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8493.3700822989376</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8253.8173289610277</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8362.4845756231189</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8288.2518222852086</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8275.3110689472996</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>8257.9863156093925</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8181.5135622714852</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>8286.6270370493185</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>8174.0822837114092</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>8182.2286179105276</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>8157.4158645726175</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>8120.3751112347099</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>8077.5405860125438</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>8121.9638326746363</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>8069.6910793367269</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>8027.402325998818</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>8008.0935726609086</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>7990.5128193230003</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>7972.0160659850908</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>7979.451312647182</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>8013.4918749620438</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>7842.8703682862279</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>7900.3336149483175</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>7861.5128616104075</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>7887.0463363882436</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>7864.1695830503331</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>7847.2528297124254</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>7806.136076374517</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>7782.4526386893767</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>7807.8718853514683</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>7773.3791320135615</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>7752.0303786756513</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>7719.1176253377425</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>7732.2608719998343</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>7683.7041186619253</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>7751.8153653240161</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>7669.4959276388772</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>7690.0751743009687</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>7656.8584209630599</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>7713.8616676251504</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>7698.7809142872438</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>7698.6241609493327</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>7655.7274076114254</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>7710.4386542735147</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>7601.3099009356074</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>7659.2464632504698</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>7687.413709912561</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>7690.5729565746506</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>7635.9562032367421</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>7676.4554498988318</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>7629.2226965609252</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>7615.4139432230158</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>7573.433189885106</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>7689.6364365471973</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>7671.85568320929</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>7636.2429298713805</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>7643.0661765334708</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>7676.8414231955621</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>7679.4988979733962</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>7575.2621446354869</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>7607.2147069503508</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>7590.6019536124413</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>7712.5652002745328</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>7586.5204469366226</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>7656.1116935987129</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>7646.9389402608058</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>7636.1341869228972</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>7619.1276617007306</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>7689.6869083628217</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>7676.538155024914</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>7701.3067173397767</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>7651.2646483490962</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>7798.1492106639589</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>7706.4964573260486</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>7760.0877039881407</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>7731.7589506502309</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7850.9221973123213</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>7881.7414439744143</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>7931.9166906365053</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>8079.5079372985956</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>8045.2814120764297</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>8233.6246587385212</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>8225.6759054006106</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>8421.1511520627027</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>8520.6943987247942</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>8760.6496453868858</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>8847.048892048977</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>9139.0681387110671</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>9357.9273853731611</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>9609.2946320352476</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>9899.1218786973404</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>10356.661125359431</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>10639.930600137264</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>11209.500934336384</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>11409.564180998477</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>12024.945655776311</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>12603.5369024384</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>13083.852149100492</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>13528.195395762585</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>13664.778642424675</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>13951.601889086767</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>14180.093135748861</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>14651.705698063721</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>14885.188944725807</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>15736.388191387899</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>16351.503438049993</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>20866.977931374175</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>25051.319406152004</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>21065.622652814098</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>14577.469899476191</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>9890.453146138283</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>8914.8363928003746</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>8316.6796394624653</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>7915.5922017773255</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>7615.5714484394184</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>7547.8106951015097</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>7519.1779417635998</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>7480.3011884256912</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>7386.7644350877827</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>7192.3894536341313</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>7091.6780159489945</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>6952.5638939166247</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>6213.3986313055411</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE03-4385-8671-18A745B793DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HOAc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$7:$L$303</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
-                <c:pt idx="0">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>89.1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>89.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>89.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>89.4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>89.7</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>90.1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>90.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>91.8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>93.1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>94.8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>99.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>104.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>107.4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>110.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>113.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>116.7</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>119.8</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>122.8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>125.8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>128.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>131.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>134.6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>140.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>142.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>145.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>148.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>150.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>153.5</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>156.1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>158.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>161.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>163.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>166.2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>168.7</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>171.2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>173.6</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>176.1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>178.5</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>180.6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>185.4</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>187.7</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>190.1</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>192.5</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>194.8</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>197.2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>199.5</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>201.9</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>204.2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>206.5</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>208.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>210.9</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>213.2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>215.6</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>217.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>220.2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>222.5</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>224.8</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>227.2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>229.5</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>231.8</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>233.8</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>236.1</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>238.4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>240.7</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>245.3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>247.6</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>252.3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>254.3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>256.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>258.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>261.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>265.8</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>268.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>270.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>272.7</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>277.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>279.7</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>284.3</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>286.3</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>288.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>290.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>293.2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>295.5</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>297.8</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>300.2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>302.5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>304.8</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>307.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>309.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>311.7</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>313.7</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>318.3</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>320.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>322.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>325.2</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>327.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>329.8</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>332.1</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>334.4</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>336.8</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>339.1</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>343.3</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>345.6</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>350.3</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>352.6</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>354.9</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>357.2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>359.5</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>361.8</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>364.1</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>366.1</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>370.7</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>375.3</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>377.7</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>382.3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>384.6</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>386.6</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>388.9</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>391.2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>393.5</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>395.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>398.1</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>400.4</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>402.7</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>404.7</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>409.3</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>411.6</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>413.9</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>416.2</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>418.5</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>420.8</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>423.1</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>425.1</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>427.4</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>429.7</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>434.3</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>436.6</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>438.9</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>441.2</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>443.5</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>445.8</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>448.1</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>450.4</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>452.7</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>455.1</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>457.4</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>459.4</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>461.7</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>466.3</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>468.6</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>470.9</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>473.2</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>475.6</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>477.9</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>480.2</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>482.2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>484.8</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>486.8</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>489.1</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>491.4</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>493.7</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>498.3</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>500.6</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>502.9</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>505.3</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>507.6</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>509.9</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>512.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>514.5</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>516.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>519.1</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>521.4</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>523.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>528.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>530.6</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>534.9</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>537.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>539.6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>541.9</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>544.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>546.5</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>548.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>551.1</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>553.4</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>555.4</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>557.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>562.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>566.9</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>569.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>571.6</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>573.9</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>576.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>578.5</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>580.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>582.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>585.1</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>587.4</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>589.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>594.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>596.5</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>598.5</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>600.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>601.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$P$7:$P$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6292,7 +4863,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FE03-4385-8671-18A745B793DC}"/>
             </c:ext>
@@ -6306,11 +4877,1463 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1216280335"/>
-        <c:axId val="1165034351"/>
+        <c:axId val="744463216"/>
+        <c:axId val="744468704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>H2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$7:$L$303</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="297"/>
+                      <c:pt idx="0">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>89.1</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>89.2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>89.3</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>89.4</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>89.7</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>90.1</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>90.8</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>91.8</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>93.1</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>94.8</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>96.9</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>99.3</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>104.4</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>107.4</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>110.5</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>113.6</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>116.7</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>119.8</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>122.8</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>125.8</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>128.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>131.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>134.6</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>137.5</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>140.30000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>142.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>145.5</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>148.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>150.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>153.5</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>156.1</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>158.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>161.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>163.69999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>166.2</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>168.7</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>171.2</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>173.6</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>176.1</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>178.5</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>180.6</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>183</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>185.4</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>187.7</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>190.1</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>192.5</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>194.8</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>197.2</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>199.5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>201.9</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>204.2</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>206.5</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>208.5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>210.9</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>213.2</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>215.6</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>217.9</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>220.2</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>222.5</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>224.8</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>227.2</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>229.5</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>231.8</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>233.8</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>236.1</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>238.4</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>240.7</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>245.3</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>247.6</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>252.3</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>254.3</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>256.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>258.89999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>261.2</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>263.5</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>265.8</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>268.10000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>270.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>272.7</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>275</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>277.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>279.7</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>282</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>284.3</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>286.3</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>288.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>290.89999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>293.2</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>295.5</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>297.8</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>300.2</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>302.5</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>304.8</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>307.10000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>309.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>311.7</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>313.7</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>316</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>318.3</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>320.60000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>322.89999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>325.2</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>327.5</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>329.8</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>332.1</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>334.4</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>336.8</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>339.1</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>343.3</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>345.6</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>348</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>350.3</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>352.6</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>354.9</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>357.2</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>359.5</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>361.8</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>364.1</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>366.1</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>370.7</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>373</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>375.3</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>377.7</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>382.3</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>384.6</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>386.6</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>388.9</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>391.2</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>393.5</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>395.8</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>398.1</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>400.4</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>402.7</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>404.7</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>407</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>409.3</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>411.6</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>413.9</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>416.2</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>418.5</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>420.8</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>423.1</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>425.1</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>427.4</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>429.7</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>432</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>434.3</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>436.6</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>438.9</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>441.2</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>443.5</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>445.8</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>448.1</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>450.4</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>452.7</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>455.1</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>457.4</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>459.4</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>461.7</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>464</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>466.3</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>468.6</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>470.9</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>473.2</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>475.6</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>477.9</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>480.2</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>482.2</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>484.8</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>486.8</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>489.1</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>491.4</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>493.7</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>496</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>498.3</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>500.6</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>502.9</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>505.3</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>507.6</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>509.9</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>512.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>514.5</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>516.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>519.1</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>521.4</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>523.70000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>526</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>528.29999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>530.6</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>533</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>534.9</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>537.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>539.6</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>541.9</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>544.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>546.5</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>548.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>551.1</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>553.4</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>555.4</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>557.70000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>560</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>562.29999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>566.9</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>569.29999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>571.6</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>573.9</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>576.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>578.5</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>580.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>582.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>585.1</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>587.4</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>589.70000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>592</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>594.29999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>596.5</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>598.5</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>600.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>601.4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$M$7:$M$303</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="297"/>
+                      <c:pt idx="135">
+                        <c:v>2708.5203618200771</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2679.9873218318539</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2722.8496858453973</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2651.0406498589409</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>2713.5503138724848</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2680.8319778860287</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2712.6276418995717</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>2659.9832059131154</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>2688.7645379272476</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>2679.3298019407912</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>2678.4577619525685</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>2694.3672259661121</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>2647.9827899796555</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>2702.0939539931992</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2669.5642180067425</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>2698.2444820202863</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>2652.2701460338299</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>2699.1687100473732</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>2662.8930740609167</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>2687.4799380744603</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>2660.306270088593</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>2705.704434102136</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>2653.7973981156797</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>2691.4798621292234</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>2660.0824221410003</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>2694.948786154544</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>2664.2938501680874</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>2696.2742141816311</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>2659.2891781951748</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>2689.5157422087182</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>2661.5217742228506</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>2671.659138236394</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>2690.3668022499378</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>2656.825766263481</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>2685.8856302770246</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>2646.4106942905682</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>2691.0842543023455</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>2656.5255183158888</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>2698.3205823294325</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>2655.3953463429762</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>2690.9253103565193</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>2654.7796743700628</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>2674.5992383836065</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>2657.92120239715</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>2691.1509664106934</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>2642.5236304242371</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>2692.4156624383695</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>2645.8133264519133</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>2685.6250184631012</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>2646.8746824766449</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>2670.9189464901883</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>2646.0187785043208</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>2680.8202425178642</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>2660.6155065314078</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>2659.7153705449514</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>2661.6211345584952</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>2654.3031985720386</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>2678.3741625855823</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>2630.6574265991258</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>2680.9770866109029</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>2646.2761146379898</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>2640.7284786515334</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>2675.1810426650768</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>2640.9385746792091</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>2677.2836386927529</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>2625.9715027062966</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>2673.7347667198401</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>2640.5542267316168</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>2666.6159907451606</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>2636.1074547587041</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>2655.6659187722476</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>2623.9589827857912</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>2660.0748467993344</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>2620.644410812878</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>2670.8760748264217</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>2635.899734838199</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>2670.1674988517425</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>2640.7199628652861</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>2672.8276268788295</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>2643.3354908923729</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>2668.3872549059165</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>2645.4964189194602</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>2642.4374829330036</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>2641.7870469465474</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>2657.6558069583243</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>2636.0640709718677</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>2657.6859349854112</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>2665.5993989989547</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>2619.5753630124987</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>2674.9564270260421</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>2633.2601910395852</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>2676.9567550531292</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>2641.5346190666723</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>2681.7235830802165</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>2646.24274709376</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>2676.7545111073032</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>2639.3352751208467</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>2681.8134071349791</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>2644.7697711485225</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>2666.3509311602998</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>2640.3854951738435</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>2677.638659187387</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>2649.3476232009307</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>2676.9733872144743</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>2640.8684512280174</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>2675.1413152415612</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>2640.8059472556934</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>2662.3832112692371</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>2664.4251752827809</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>2646.2915352945574</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>2685.1826033098678</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>2646.7367633216445</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>2680.3346273351881</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2639.9527913487318</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>2653.0208553622751</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>2643.4243193758189</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>2678.9300833893622</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>2640.6052474029061</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>2682.7811114164497</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>2645.571043430582</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>2672.6772074441255</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>2626.9880714576693</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>2673.0129354712126</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>2647.6218994847559</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>2643.1123634982996</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>2665.1327275118433</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>2641.2458915253869</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>2684.6801555389302</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>2631.209119552474</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>2681.2331835660175</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>2651.0978475795609</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>2661.0890795936934</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>2624.6183716048818</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>2693.3025356184253</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>2634.0699676325576</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>2702.1339316461008</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>2661.9889956596448</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>2705.4856596731884</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>2666.4692236867318</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>2659.8873877002752</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>2663.5342517138188</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>2701.584811725596</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>2668.0819757391391</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>2688.0645397526832</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>2636.9727037662265</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>2659.3246317933135</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>2743.5299638074457</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>2748.2008278209896</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>2715.0799918345328</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>2705.3599558480769</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>2650.8203198616202</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>2683.4272838751635</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>2655.1935438869409</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>2659.6606079004841</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>2657.181271914028</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>2694.8738359275712</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>2643.2393999411152</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>2675.9877639546585</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>2606.7243599676135</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>2596.5841199793904</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>2541.0358759894007</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>2561.792191996467</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FE03-4385-8671-18A745B793DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1216280335"/>
+        <c:axId val="744463216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -6334,7 +6357,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6344,7 +6367,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6354,7 +6377,7 @@
                   <a:t>Temperature</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6363,7 +6386,7 @@
                   </a:rPr>
                   <a:t> (K)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1600">
+                <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6373,6 +6396,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6386,7 +6410,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6405,7 +6429,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6418,7 +6442,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6430,13 +6454,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165034351"/>
+        <c:crossAx val="744468704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1165034351"/>
+        <c:axId val="744468704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6472,7 +6496,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -6485,7 +6509,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6494,29 +6518,7 @@
                   </a:rPr>
                   <a:t>QMS Intensity (a.u.) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>x 10</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="30000">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>4</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1600">
+                <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6527,6 +6529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6554,7 +6557,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -6576,7 +6579,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6589,7 +6592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6601,7 +6604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1216280335"/>
+        <c:crossAx val="744463216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -6610,7 +6613,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="9525">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -6620,14 +6623,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7234,7 +7237,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E685C1E2-C4C1-4A19-A662-3599501C4DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E685C1E2-C4C1-4A19-A662-3599501C4DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7261,19 +7264,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.7206</cdr:x>
-      <cdr:y>0.6951</cdr:y>
+      <cdr:x>0.5413</cdr:x>
+      <cdr:y>0.57821</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77473</cdr:x>
-      <cdr:y>0.7691</cdr:y>
+      <cdr:x>0.84204</cdr:x>
+      <cdr:y>0.80608</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
+        <cdr:cNvPr id="4" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F69746-31FC-4F24-A7CE-FD8EAABB6992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{713E630C-6754-4796-8C6B-14169EFDB22F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7281,8 +7284,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5271354" y="3177997"/>
-          <a:ext cx="395971" cy="338328"/>
+          <a:off x="3526422" y="2633977"/>
+          <a:ext cx="1959283" cy="1037998"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7357,20 +7360,130 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1200">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>H</a:t>
+            <a:t>44 amu (CO</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="-25000">
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)       4x</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="800" baseline="0">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>28 amu (CO)      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>10x</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -7380,19 +7493,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71967</cdr:x>
-      <cdr:y>0.61752</cdr:y>
+      <cdr:x>0.23735</cdr:x>
+      <cdr:y>0.12655</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77382</cdr:x>
-      <cdr:y>0.69154</cdr:y>
+      <cdr:x>0.36395</cdr:x>
+      <cdr:y>0.20055</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1">
+        <cdr:cNvPr id="5" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81B9BA3-A392-4414-8AB1-AB28C06BC7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9572D331-A969-442A-A47E-122169F12FB7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7400,8 +7513,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5264550" y="2823301"/>
-          <a:ext cx="396119" cy="338420"/>
+          <a:off x="1546277" y="576483"/>
+          <a:ext cx="824754" cy="337097"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7476,42 +7589,31 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>CO </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>10x</a:t>
+            <a:t>60 amu (HOAc)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71967</cdr:x>
-      <cdr:y>0.54894</cdr:y>
+      <cdr:x>0.13151</cdr:x>
+      <cdr:y>0.03818</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77382</cdr:x>
-      <cdr:y>0.62295</cdr:y>
+      <cdr:x>0.25651</cdr:x>
+      <cdr:y>0.23818</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1">
+        <cdr:cNvPr id="6" name="TextBox 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713E630C-6754-4796-8C6B-14169EFDB22F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBDA9ED4-AA05-47EB-A84D-64024F8753B3}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7519,249 +7621,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5264550" y="2509754"/>
-          <a:ext cx="396119" cy="338373"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>CO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="-25000">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>4x</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.23735</cdr:x>
-      <cdr:y>0.12655</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.29148</cdr:x>
-      <cdr:y>0.20055</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9572D331-A969-442A-A47E-122169F12FB7}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1854662" y="582814"/>
-          <a:ext cx="422970" cy="340789"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>HOAc</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.1125</cdr:x>
-      <cdr:y>0.03818</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.2375</cdr:x>
-      <cdr:y>0.23818</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA9ED4-AA05-47EB-A84D-64024F8753B3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="822960" y="174568"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="856735" y="173924"/>
+          <a:ext cx="814344" cy="911075"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7772,7 +7633,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="1400">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
@@ -7861,23 +7722,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7913,23 +7757,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8105,26 +7932,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8165,7 +7992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>89.1</v>
       </c>
@@ -8209,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>89.1</v>
       </c>
@@ -8253,7 +8080,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>89.1</v>
       </c>
@@ -8282,7 +8109,7 @@
         <v>0.71299999999999397</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>89.1</v>
       </c>
@@ -8311,7 +8138,7 @@
         <v>1.8210000000000119</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>89.1</v>
       </c>
@@ -8355,7 +8182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>89.1</v>
       </c>
@@ -8391,7 +8218,7 @@
         <v>501.08199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>89.1</v>
       </c>
@@ -8427,7 +8254,7 @@
         <v>500.80200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>89.1</v>
       </c>
@@ -8463,7 +8290,7 @@
         <v>500.71300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>89.1</v>
       </c>
@@ -8499,7 +8326,7 @@
         <v>501.82100000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>89.1</v>
       </c>
@@ -8535,7 +8362,7 @@
         <v>501.49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>89.1</v>
       </c>
@@ -8571,7 +8398,7 @@
         <v>500.96700000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>89.1</v>
       </c>
@@ -8607,7 +8434,7 @@
         <v>500.649</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>89.1</v>
       </c>
@@ -8643,7 +8470,7 @@
         <v>500.25400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>89.1</v>
       </c>
@@ -8679,7 +8506,7 @@
         <v>501.70600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>89.1</v>
       </c>
@@ -8715,7 +8542,7 @@
         <v>500.649</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>89.1</v>
       </c>
@@ -8751,7 +8578,7 @@
         <v>501.50200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>89.1</v>
       </c>
@@ -8787,7 +8614,7 @@
         <v>501.38799999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>89.1</v>
       </c>
@@ -8823,7 +8650,7 @@
         <v>500.95499999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>89.1</v>
       </c>
@@ -8859,7 +8686,7 @@
         <v>501.52800000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>89.1</v>
       </c>
@@ -8895,7 +8722,7 @@
         <v>500.471</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>89.1</v>
       </c>
@@ -8931,7 +8758,7 @@
         <v>501.74400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>89.1</v>
       </c>
@@ -8967,7 +8794,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>89.1</v>
       </c>
@@ -9003,7 +8830,7 @@
         <v>501.56600000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>89.1</v>
       </c>
@@ -9039,7 +8866,7 @@
         <v>501.68100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>89.1</v>
       </c>
@@ -9075,7 +8902,7 @@
         <v>501.57900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>89.1</v>
       </c>
@@ -9111,7 +8938,7 @@
         <v>501.87200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>89.1</v>
       </c>
@@ -9147,7 +8974,7 @@
         <v>501.57900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>89.1</v>
       </c>
@@ -9183,7 +9010,7 @@
         <v>501.61700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>89.1</v>
       </c>
@@ -9219,7 +9046,7 @@
         <v>500.7</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>89.1</v>
       </c>
@@ -9255,7 +9082,7 @@
         <v>501.15899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>89.1</v>
       </c>
@@ -9291,7 +9118,7 @@
         <v>501.45100000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>89.1</v>
       </c>
@@ -9327,7 +9154,7 @@
         <v>502.39400000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>89.1</v>
       </c>
@@ -9363,7 +9190,7 @@
         <v>501.50200000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>89.1</v>
       </c>
@@ -9399,7 +9226,7 @@
         <v>501.108</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>89.1</v>
       </c>
@@ -9435,7 +9262,7 @@
         <v>501.64300000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>89.1</v>
       </c>
@@ -9471,7 +9298,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>89.1</v>
       </c>
@@ -9507,7 +9334,7 @@
         <v>501.108</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>89.1</v>
       </c>
@@ -9543,7 +9370,7 @@
         <v>501.209</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>89.1</v>
       </c>
@@ -9579,7 +9406,7 @@
         <v>502.012</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>89.1</v>
       </c>
@@ -9615,7 +9442,7 @@
         <v>502.24099999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>89.1</v>
       </c>
@@ -9651,7 +9478,7 @@
         <v>501.73200000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>89.1</v>
       </c>
@@ -9687,7 +9514,7 @@
         <v>501.80799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>89.1</v>
       </c>
@@ -9723,7 +9550,7 @@
         <v>501.26</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>89.1</v>
       </c>
@@ -9759,7 +9586,7 @@
         <v>500.99299999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>89.1</v>
       </c>
@@ -9795,7 +9622,7 @@
         <v>501.57900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>89.1</v>
       </c>
@@ -9831,7 +9658,7 @@
         <v>501.35</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>89.1</v>
       </c>
@@ -9867,7 +9694,7 @@
         <v>501.36200000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>89.1</v>
       </c>
@@ -9903,7 +9730,7 @@
         <v>502.13900000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>89.1</v>
       </c>
@@ -9939,7 +9766,7 @@
         <v>501.32400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>89.1</v>
       </c>
@@ -9975,7 +9802,7 @@
         <v>501.03100000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>89.1</v>
       </c>
@@ -10011,7 +9838,7 @@
         <v>500.99299999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>89.1</v>
       </c>
@@ -10047,7 +9874,7 @@
         <v>501.35</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>89.1</v>
       </c>
@@ -10083,7 +9910,7 @@
         <v>501.77</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>89.1</v>
       </c>
@@ -10119,7 +9946,7 @@
         <v>502.05</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>89.1</v>
       </c>
@@ -10155,7 +9982,7 @@
         <v>501.70600000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>89.1</v>
       </c>
@@ -10191,7 +10018,7 @@
         <v>502.89100000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>89.1</v>
       </c>
@@ -10227,7 +10054,7 @@
         <v>502.738</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>89.1</v>
       </c>
@@ -10263,7 +10090,7 @@
         <v>501.82100000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>89.1</v>
       </c>
@@ -10299,7 +10126,7 @@
         <v>500.92900000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>89.1</v>
       </c>
@@ -10335,7 +10162,7 @@
         <v>502.03700000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>89.1</v>
       </c>
@@ -10371,7 +10198,7 @@
         <v>501.834</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>89.1</v>
       </c>
@@ -10407,7 +10234,7 @@
         <v>502.44499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>89.1</v>
       </c>
@@ -10443,7 +10270,7 @@
         <v>503.01800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>89.1</v>
       </c>
@@ -10479,7 +10306,7 @@
         <v>500.95499999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>89.1</v>
       </c>
@@ -10515,7 +10342,7 @@
         <v>501.51499999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>89.1</v>
       </c>
@@ -10551,7 +10378,7 @@
         <v>502.38099999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>89.1</v>
       </c>
@@ -10587,7 +10414,7 @@
         <v>500.76400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>89.1</v>
       </c>
@@ -10623,7 +10450,7 @@
         <v>501.63</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>89.1</v>
       </c>
@@ -10659,7 +10486,7 @@
         <v>501.61700000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>89.1</v>
       </c>
@@ -10695,7 +10522,7 @@
         <v>502.267</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>89.1</v>
       </c>
@@ -10731,7 +10558,7 @@
         <v>502.03700000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>89.1</v>
       </c>
@@ -10767,7 +10594,7 @@
         <v>501.99899999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>89.1</v>
       </c>
@@ -10803,7 +10630,7 @@
         <v>501.41300000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>89.2</v>
       </c>
@@ -10839,7 +10666,7 @@
         <v>501.96100000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>89.3</v>
       </c>
@@ -10875,7 +10702,7 @@
         <v>501.22199999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>89.4</v>
       </c>
@@ -10911,7 +10738,7 @@
         <v>500.94200000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>89.7</v>
       </c>
@@ -10947,7 +10774,7 @@
         <v>500.76400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>90.1</v>
       </c>
@@ -10983,7 +10810,7 @@
         <v>501.51499999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>90.8</v>
       </c>
@@ -11019,7 +10846,7 @@
         <v>500.67445671980954</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>91.8</v>
       </c>
@@ -11055,7 +10882,7 @@
         <v>501.46291343961906</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>93.1</v>
       </c>
@@ -11091,7 +10918,7 @@
         <v>501.01637015942856</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>94.8</v>
       </c>
@@ -11127,7 +10954,7 @@
         <v>502.12274031885715</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>96.9</v>
       </c>
@@ -11163,7 +10990,7 @@
         <v>501.82856719809524</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>99.3</v>
       </c>
@@ -11199,7 +11026,7 @@
         <v>502.75376423676187</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>102</v>
       </c>
@@ -11235,7 +11062,7 @@
         <v>502.12433143485708</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>104.4</v>
       </c>
@@ -11271,7 +11098,7 @@
         <v>502.27026879238088</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>107.4</v>
       </c>
@@ -11307,7 +11134,7 @@
         <v>505.90403302914274</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>110.5</v>
       </c>
@@ -11343,7 +11170,7 @@
         <v>522.75562414514263</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>113.6</v>
       </c>
@@ -11379,7 +11206,7 @@
         <v>565.7535854205712</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>116.7</v>
       </c>
@@ -11415,7 +11242,7 @@
         <v>627.31891685542826</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>119.8</v>
       </c>
@@ -11451,7 +11278,7 @@
         <v>688.16087813085676</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>122.8</v>
       </c>
@@ -11487,7 +11314,7 @@
         <v>732.36557972514242</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>125.8</v>
       </c>
@@ -11523,7 +11350,7 @@
         <v>774.2267380392376</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>128.80000000000001</v>
       </c>
@@ -11559,7 +11386,7 @@
         <v>815.55189635333272</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>131.69999999999999</v>
       </c>
@@ -11595,7 +11422,7 @@
         <v>893.78805466742801</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>134.6</v>
       </c>
@@ -11631,7 +11458,7 @@
         <v>978.2012129815231</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>137.5</v>
       </c>
@@ -11667,7 +11494,7 @@
         <v>1048.1839145758086</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>140.30000000000001</v>
       </c>
@@ -11703,7 +11530,7 @@
         <v>1121.1476161700944</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>142.69999999999999</v>
       </c>
@@ -11739,7 +11566,7 @@
         <v>1205.6883177643799</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>145.5</v>
       </c>
@@ -11775,7 +11602,7 @@
         <v>1254.2245626388562</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>148.19999999999999</v>
       </c>
@@ -11811,7 +11638,7 @@
         <v>1262.6398075133322</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>150.80000000000001</v>
       </c>
@@ -11847,7 +11674,7 @@
         <v>1307.8510523878081</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>153.5</v>
       </c>
@@ -11883,7 +11710,7 @@
         <v>1389.2608405424749</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>156.1</v>
       </c>
@@ -11919,7 +11746,7 @@
         <v>1511.440801817904</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>158.69999999999999</v>
       </c>
@@ -11955,7 +11782,7 @@
         <v>1618.7815899725699</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>161.19999999999999</v>
       </c>
@@ -11991,7 +11818,7 @@
         <v>1870.2479214074269</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>163.69999999999999</v>
       </c>
@@ -12027,7 +11854,7 @@
         <v>2181.5887961224753</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>166.2</v>
       </c>
@@ -12063,7 +11890,7 @@
         <v>2791.7011275573318</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>168.7</v>
       </c>
@@ -12099,7 +11926,7 @@
         <v>3831.2740022723792</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>171.2</v>
       </c>
@@ -12135,7 +11962,7 @@
         <v>5473.1158769874282</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>173.6</v>
       </c>
@@ -12171,7 +11998,7 @@
         <v>7904.528294982666</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>176.1</v>
       </c>
@@ -12207,7 +12034,7 @@
         <v>11364.511712977899</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>178.5</v>
       </c>
@@ -12243,7 +12070,7 @@
         <v>14866.18013097314</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>180.6</v>
       </c>
@@ -12279,7 +12106,7 @@
         <v>21246.350548968381</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>183</v>
       </c>
@@ -12315,7 +12142,7 @@
         <v>26338.764966963619</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>185.4</v>
       </c>
@@ -12351,7 +12178,7 @@
         <v>16333.850928239041</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>187.7</v>
       </c>
@@ -12387,7 +12214,7 @@
         <v>7208.2353462342844</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>190.1</v>
       </c>
@@ -12423,7 +12250,7 @@
         <v>4782.2343075097133</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>192.5</v>
       </c>
@@ -12459,7 +12286,7 @@
         <v>5464.9468986257134</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>194.8</v>
       </c>
@@ -12495,7 +12322,7 @@
         <v>5761.2858599011424</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>197.2</v>
       </c>
@@ -12531,7 +12358,7 @@
         <v>3601.8208211765691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>199.5</v>
       </c>
@@ -12567,7 +12394,7 @@
         <v>2041.924325732188</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>201.9</v>
       </c>
@@ -12603,7 +12430,7 @@
         <v>1146.2972870076167</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>204.2</v>
       </c>
@@ -12639,7 +12466,7 @@
         <v>745.5312482830451</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>206.5</v>
       </c>
@@ -12675,7 +12502,7 @@
         <v>598.69275283866409</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>208.5</v>
       </c>
@@ -12711,7 +12538,7 @@
         <v>545.55671411409264</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>210.9</v>
       </c>
@@ -12747,7 +12574,7 @@
         <v>526.69421866971152</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>213.2</v>
       </c>
@@ -12783,7 +12610,7 @@
         <v>518.88617994514004</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>215.6</v>
       </c>
@@ -12819,7 +12646,7 @@
         <v>515.84268450075911</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>217.9</v>
       </c>
@@ -12855,7 +12682,7 @@
         <v>514.00818905637811</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>220.2</v>
       </c>
@@ -12891,7 +12718,7 @@
         <v>510.91532345256849</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>222.5</v>
       </c>
@@ -12927,7 +12754,7 @@
         <v>510.52028472799702</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>224.8</v>
       </c>
@@ -12963,7 +12790,7 @@
         <v>510.63478928361599</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>227.2</v>
       </c>
@@ -12999,7 +12826,7 @@
         <v>508.85175055904449</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>229.5</v>
       </c>
@@ -13035,7 +12862,7 @@
         <v>509.13225511466351</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>231.8</v>
       </c>
@@ -13071,7 +12898,7 @@
         <v>508.7117596702825</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>233.8</v>
       </c>
@@ -13107,7 +12934,7 @@
         <v>509.6422642259015</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>236.1</v>
       </c>
@@ -13143,7 +12970,7 @@
         <v>508.85276878152047</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>238.4</v>
       </c>
@@ -13179,7 +13006,7 @@
         <v>508.06273005694896</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>240.7</v>
       </c>
@@ -13215,7 +13042,7 @@
         <v>507.91023461256799</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>243</v>
       </c>
@@ -13263,7 +13090,7 @@
         <v>507.46473916818701</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>245.3</v>
       </c>
@@ -13311,7 +13138,7 @@
         <v>509.31387356437739</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>247.6</v>
       </c>
@@ -13359,7 +13186,7 @@
         <v>507.5683781199964</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>250</v>
       </c>
@@ -13407,7 +13234,7 @@
         <v>506.93188267561538</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>252.3</v>
       </c>
@@ -13455,7 +13282,7 @@
         <v>506.80538723123436</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>254.3</v>
       </c>
@@ -13503,7 +13330,7 @@
         <v>506.34689178685335</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>256.60000000000002</v>
       </c>
@@ -13551,7 +13378,7 @@
         <v>505.67239634247238</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>258.89999999999998</v>
       </c>
@@ -13599,7 +13426,7 @@
         <v>506.51290089809135</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>261.2</v>
       </c>
@@ -13647,7 +13474,7 @@
         <v>505.39186217351988</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>263.5</v>
       </c>
@@ -13695,7 +13522,7 @@
         <v>506.51236672913888</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>265.8</v>
       </c>
@@ -13743,7 +13570,7 @@
         <v>504.99850112532926</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>268.10000000000002</v>
       </c>
@@ -13791,7 +13618,7 @@
         <v>504.82100568094825</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>270.39999999999998</v>
       </c>
@@ -13839,7 +13666,7 @@
         <v>505.31751023656727</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>272.7</v>
       </c>
@@ -13887,7 +13714,7 @@
         <v>505.44501479218627</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>275</v>
       </c>
@@ -13935,7 +13762,7 @@
         <v>504.66851934780527</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>277.39999999999998</v>
       </c>
@@ -13983,7 +13810,7 @@
         <v>505.56102390342426</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>279.7</v>
       </c>
@@ -14031,7 +13858,7 @@
         <v>504.98752845904323</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>282</v>
       </c>
@@ -14079,7 +13906,7 @@
         <v>506.16003301466225</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>284.3</v>
       </c>
@@ -14127,7 +13954,7 @@
         <v>503.89253757028121</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>286.3</v>
       </c>
@@ -14175,7 +14002,7 @@
         <v>504.59404212590022</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>288.60000000000002</v>
       </c>
@@ -14223,7 +14050,7 @@
         <v>504.95000340132873</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>290.89999999999998</v>
       </c>
@@ -14271,7 +14098,7 @@
         <v>504.65750795694771</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>293.2</v>
       </c>
@@ -14319,7 +14146,7 @@
         <v>503.65101251256669</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>295.5</v>
       </c>
@@ -14367,7 +14194,7 @@
         <v>504.49251706818569</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>297.8</v>
       </c>
@@ -14415,7 +14242,7 @@
         <v>505.62765146437613</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>300.2</v>
       </c>
@@ -14463,7 +14290,7 @@
         <v>503.98515601999509</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>302.5</v>
       </c>
@@ -14511,7 +14338,7 @@
         <v>503.39866057561409</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>304.8</v>
       </c>
@@ -14559,7 +14386,7 @@
         <v>504.43116513123312</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>307.10000000000002</v>
       </c>
@@ -14607,7 +14434,7 @@
         <v>504.2276696868521</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>309.39999999999998</v>
       </c>
@@ -14655,7 +14482,7 @@
         <v>503.73117424247107</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>311.7</v>
       </c>
@@ -14703,7 +14530,7 @@
         <v>503.46313551789956</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>313.7</v>
       </c>
@@ -14751,7 +14578,7 @@
         <v>502.38064007351858</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>316</v>
       </c>
@@ -14799,7 +14626,7 @@
         <v>502.49614462913758</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>318.3</v>
       </c>
@@ -14847,7 +14674,7 @@
         <v>504.43164918475657</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>320.60000000000002</v>
       </c>
@@ -14895,7 +14722,7 @@
         <v>503.54015374037556</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>322.89999999999998</v>
       </c>
@@ -14943,7 +14770,7 @@
         <v>504.15265829599457</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>325.2</v>
       </c>
@@ -14991,7 +14818,7 @@
         <v>502.94379269218496</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>327.5</v>
       </c>
@@ -15039,7 +14866,7 @@
         <v>503.14829724780395</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>329.8</v>
       </c>
@@ -15087,7 +14914,7 @@
         <v>504.00180180342295</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>332.1</v>
       </c>
@@ -15135,7 +14962,7 @@
         <v>502.63930635904194</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>334.4</v>
       </c>
@@ -15183,7 +15010,7 @@
         <v>502.21881091466093</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>336.8</v>
       </c>
@@ -15231,7 +15058,7 @@
         <v>502.35931547027991</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>339.1</v>
       </c>
@@ -15279,7 +15106,7 @@
         <v>503.76082002589891</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>341</v>
       </c>
@@ -15327,7 +15154,7 @@
         <v>503.39132458151789</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>343.3</v>
       </c>
@@ -15375,7 +15202,7 @@
         <v>502.61482913713689</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>345.6</v>
       </c>
@@ -15423,7 +15250,7 @@
         <v>502.9463336927559</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>348</v>
       </c>
@@ -15471,7 +15298,7 @@
         <v>503.83729496818438</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>350.3</v>
       </c>
@@ -15519,7 +15346,7 @@
         <v>503.7617995238034</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>352.6</v>
       </c>
@@ -15567,7 +15394,7 @@
         <v>502.9484772001843</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>354.9</v>
       </c>
@@ -15615,7 +15442,7 @@
         <v>502.3499817558033</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>357.2</v>
       </c>
@@ -15663,7 +15490,7 @@
         <v>503.08948631142226</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>359.5</v>
       </c>
@@ -15711,7 +15538,7 @@
         <v>503.5094475868508</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>361.8</v>
       </c>
@@ -15759,7 +15586,7 @@
         <v>503.59895214246978</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>364.1</v>
       </c>
@@ -15807,7 +15634,7 @@
         <v>502.36345669808878</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>366.1</v>
       </c>
@@ -15855,7 +15682,7 @@
         <v>502.56696125370775</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>368.4</v>
       </c>
@@ -15903,7 +15730,7 @@
         <v>502.78446580932678</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>370.7</v>
       </c>
@@ -15951,7 +15778,7 @@
         <v>503.36997036494574</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>373</v>
       </c>
@@ -15999,7 +15826,7 @@
         <v>502.49147492056471</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>375.3</v>
       </c>
@@ -16047,7 +15874,7 @@
         <v>502.74697947618375</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>377.7</v>
       </c>
@@ -16095,7 +15922,7 @@
         <v>502.79911387237416</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>380</v>
       </c>
@@ -16143,7 +15970,7 @@
         <v>501.45012298361212</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>382.3</v>
       </c>
@@ -16191,7 +16018,7 @@
         <v>504.69762753923112</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>384.6</v>
       </c>
@@ -16239,7 +16066,7 @@
         <v>504.67313209485013</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>386.6</v>
       </c>
@@ -16287,7 +16114,7 @@
         <v>501.79409337027863</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>388.9</v>
       </c>
@@ -16335,7 +16162,7 @@
         <v>502.77459792589764</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>391.2</v>
       </c>
@@ -16383,7 +16210,7 @@
         <v>502.26610248151661</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>393.5</v>
       </c>
@@ -16431,7 +16258,7 @@
         <v>502.97960703713562</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>395.8</v>
       </c>
@@ -16479,7 +16306,7 @@
         <v>503.27374143332605</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>398.1</v>
       </c>
@@ -16527,7 +16354,7 @@
         <v>503.12124598894502</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>400.4</v>
       </c>
@@ -16575,7 +16402,7 @@
         <v>502.94375054456401</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>402.7</v>
       </c>
@@ -16623,7 +16450,7 @@
         <v>503.07125510018301</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>404.7</v>
       </c>
@@ -16671,7 +16498,7 @@
         <v>503.07075965580202</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>407</v>
       </c>
@@ -16719,7 +16546,7 @@
         <v>503.17326421142099</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>409.3</v>
       </c>
@@ -16767,7 +16594,7 @@
         <v>503.32676876703999</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>411.6</v>
       </c>
@@ -16815,7 +16642,7 @@
         <v>502.75327332265897</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>413.9</v>
       </c>
@@ -16863,7 +16690,7 @@
         <v>503.1244077188494</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>416.2</v>
       </c>
@@ -16911,7 +16738,7 @@
         <v>503.82591227446835</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>418.5</v>
       </c>
@@ -16959,7 +16786,7 @@
         <v>503.04841683008738</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>420.8</v>
       </c>
@@ -17007,7 +16834,7 @@
         <v>503.80092138570637</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>423.1</v>
       </c>
@@ -17055,7 +16882,7 @@
         <v>502.94742594132538</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>425.1</v>
       </c>
@@ -17103,7 +16930,7 @@
         <v>504.13193049694434</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>427.4</v>
       </c>
@@ -17151,7 +16978,7 @@
         <v>503.67343505256332</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>429.7</v>
       </c>
@@ -17199,7 +17026,7 @@
         <v>503.31793960818231</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>432</v>
       </c>
@@ -17247,7 +17074,7 @@
         <v>504.17144416380131</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>434.3</v>
       </c>
@@ -17295,7 +17122,7 @@
         <v>502.81057855999177</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>436.6</v>
       </c>
@@ -17343,7 +17170,7 @@
         <v>503.90608311561073</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>438.9</v>
       </c>
@@ -17391,7 +17218,7 @@
         <v>503.29458767122975</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>441.2</v>
       </c>
@@ -17439,7 +17266,7 @@
         <v>503.12909222684874</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>443.5</v>
       </c>
@@ -17487,7 +17314,7 @@
         <v>503.84259678246769</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>445.8</v>
       </c>
@@ -17535,7 +17362,7 @@
         <v>502.73510133808668</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>448.1</v>
       </c>
@@ -17583,7 +17410,7 @@
         <v>504.4676058937057</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>450.4</v>
       </c>
@@ -17631,7 +17458,7 @@
         <v>502.67211044932469</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>452.7</v>
       </c>
@@ -17679,7 +17506,7 @@
         <v>503.04161500494371</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>455.1</v>
       </c>
@@ -17727,7 +17554,7 @@
         <v>503.18211956056268</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>457.4</v>
       </c>
@@ -17775,7 +17602,7 @@
         <v>503.65362411618167</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>459.4</v>
       </c>
@@ -17823,7 +17650,7 @@
         <v>502.38012867180066</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>461.7</v>
       </c>
@@ -17871,7 +17698,7 @@
         <v>503.67863322741965</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>464</v>
       </c>
@@ -17919,7 +17746,7 @@
         <v>502.96559450284815</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>466.3</v>
       </c>
@@ -17967,7 +17794,7 @@
         <v>503.15709905846717</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>468.6</v>
       </c>
@@ -18015,7 +17842,7 @@
         <v>503.19723345465758</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>470.9</v>
       </c>
@@ -18063,7 +17890,7 @@
         <v>503.32473801027658</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>473.2</v>
       </c>
@@ -18111,7 +17938,7 @@
         <v>502.58624256589553</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>475.6</v>
       </c>
@@ -18159,7 +17986,7 @@
         <v>502.76474712151452</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>477.9</v>
       </c>
@@ -18207,7 +18034,7 @@
         <v>502.40825167713353</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>480.2</v>
       </c>
@@ -18255,7 +18082,7 @@
         <v>503.27475623275251</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>482.2</v>
       </c>
@@ -18303,7 +18130,7 @@
         <v>502.89226078837152</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>484.8</v>
       </c>
@@ -18351,7 +18178,7 @@
         <v>502.61222206380006</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>486.8</v>
       </c>
@@ -18399,7 +18226,7 @@
         <v>503.08372661941905</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>489.1</v>
       </c>
@@ -18447,7 +18274,7 @@
         <v>501.68323117503803</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>491.4</v>
       </c>
@@ -18495,7 +18322,7 @@
         <v>502.79336557122843</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>493.7</v>
       </c>
@@ -18543,7 +18370,7 @@
         <v>503.55524028627599</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>496</v>
       </c>
@@ -18591,7 +18418,7 @@
         <v>501.43037468246644</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>498.3</v>
       </c>
@@ -18639,7 +18466,7 @@
         <v>502.57687923808544</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>500.6</v>
       </c>
@@ -18687,7 +18514,7 @@
         <v>502.99738379370439</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>502.9</v>
       </c>
@@ -18735,7 +18562,7 @@
         <v>502.36088834932337</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>505.3</v>
       </c>
@@ -18783,7 +18610,7 @@
         <v>503.6603929049424</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>507.6</v>
       </c>
@@ -18831,7 +18658,7 @@
         <v>503.48189746056136</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>509.9</v>
       </c>
@@ -18879,7 +18706,7 @@
         <v>502.01740201618037</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>512.20000000000005</v>
       </c>
@@ -18927,7 +18754,7 @@
         <v>502.10690657179936</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>514.5</v>
       </c>
@@ -18975,7 +18802,7 @@
         <v>502.41286784722786</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>516.79999999999995</v>
       </c>
@@ -19023,7 +18850,7 @@
         <v>502.32337240284687</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>519.1</v>
       </c>
@@ -19071,7 +18898,7 @@
         <v>503.24087695846589</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>521.4</v>
       </c>
@@ -19119,7 +18946,7 @@
         <v>502.60438151408482</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>523.70000000000005</v>
       </c>
@@ -19167,7 +18994,7 @@
         <v>503.16488606970387</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>526</v>
       </c>
@@ -19215,7 +19042,7 @@
         <v>502.55439062532281</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>528.29999999999995</v>
       </c>
@@ -19263,7 +19090,7 @@
         <v>502.87289518094184</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>530.6</v>
       </c>
@@ -19311,7 +19138,7 @@
         <v>502.50339973656082</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>533</v>
       </c>
@@ -19359,7 +19186,7 @@
         <v>503.39490429217983</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>534.9</v>
       </c>
@@ -19407,7 +19234,7 @@
         <v>502.72040884779881</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>537.20000000000005</v>
       </c>
@@ -19455,7 +19282,7 @@
         <v>502.75891340341781</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>539.6</v>
       </c>
@@ -19503,7 +19330,7 @@
         <v>503.24341795903678</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>541.9</v>
       </c>
@@ -19551,7 +19378,7 @@
         <v>502.83537923446534</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>544.20000000000005</v>
       </c>
@@ -19599,7 +19426,7 @@
         <v>503.46205691084623</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>546.5</v>
       </c>
@@ -19647,7 +19474,7 @@
         <v>502.93956146646519</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>548.79999999999995</v>
       </c>
@@ -19695,7 +19522,7 @@
         <v>502.55752274189371</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>551.1</v>
       </c>
@@ -19743,7 +19570,7 @@
         <v>502.9520272975127</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>553.4</v>
       </c>
@@ -19791,7 +19618,7 @@
         <v>503.02953185313169</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>555.4</v>
       </c>
@@ -19839,7 +19666,7 @@
         <v>502.36703640875066</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>557.70000000000005</v>
       </c>
@@ -19887,7 +19714,7 @@
         <v>503.33554096436967</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>560</v>
       </c>
@@ -19935,7 +19762,7 @@
         <v>503.60304551998865</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>562.29999999999995</v>
       </c>
@@ -19983,7 +19810,7 @@
         <v>502.41855007560764</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>564.6</v>
       </c>
@@ -20031,7 +19858,7 @@
         <v>503.15968447179807</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>566.9</v>
       </c>
@@ -20079,7 +19906,7 @@
         <v>503.32518902741708</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>569.29999999999995</v>
       </c>
@@ -20127,7 +19954,7 @@
         <v>503.52969358303608</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>571.6</v>
       </c>
@@ -20175,7 +20002,7 @@
         <v>502.60019813865506</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>573.9</v>
       </c>
@@ -20223,7 +20050,7 @@
         <v>503.49220724989306</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>576.20000000000005</v>
       </c>
@@ -20271,7 +20098,7 @@
         <v>502.35816852532156</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>578.5</v>
       </c>
@@ -20319,7 +20146,7 @@
         <v>502.75267308094055</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>580.79999999999995</v>
       </c>
@@ -20367,7 +20194,7 @@
         <v>503.36417763655953</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>582.79999999999995</v>
       </c>
@@ -20415,7 +20242,7 @@
         <v>501.96368219217851</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>585.1</v>
       </c>
@@ -20463,7 +20290,7 @@
         <v>502.37118674779748</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>587.4</v>
       </c>
@@ -20511,7 +20338,7 @@
         <v>501.96469130341649</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>589.70000000000005</v>
       </c>
@@ -20559,7 +20386,7 @@
         <v>501.34182569960694</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>592</v>
       </c>
@@ -20607,7 +20434,7 @@
         <v>501.95333025522592</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>594.29999999999995</v>
       </c>
@@ -20655,7 +20482,7 @@
         <v>502.05583481084489</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>596.5</v>
       </c>
@@ -20703,7 +20530,7 @@
         <v>502.46333936646391</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>598.5</v>
       </c>
@@ -20751,7 +20578,7 @@
         <v>502.18384392208293</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>600.20000000000005</v>
       </c>
@@ -20799,7 +20626,7 @@
         <v>501.81434847770186</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>601.4</v>
       </c>
@@ -20847,7 +20674,7 @@
         <v>501.36939631351134</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>602</v>
       </c>
@@ -20895,7 +20722,7 @@
         <v>502.63253070970177</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L302" s="1">
         <v>600.20000000000005</v>
       </c>
@@ -20916,7 +20743,7 @@
         <v>501.50229494646362</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L303" s="1">
         <v>601.4</v>
       </c>
@@ -20937,7 +20764,7 @@
         <v>500.56577558417791</v>
       </c>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L306" s="1"/>
     </row>
   </sheetData>
